--- a/Rates_Flat.xlsx
+++ b/Rates_Flat.xlsx
@@ -131,11 +131,11 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -164,7 +164,7 @@
         <v>2026</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0.15</v>
